--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-333447.881936759</v>
+        <v>-336343.0830133256</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>6.056421089299432</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,26 +814,26 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
         <v>6.876045741711437</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>42.1878795567906</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>42.18787955679073</v>
       </c>
       <c r="F5" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="G5" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.89722928790943</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="H6" t="n">
-        <v>47.89722928790943</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>42.18787955679073</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>42.18787955679061</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14.40153153218735</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.89722928790943</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.07161288389806</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.78634802460326</v>
+        <v>27.78634802460323</v>
       </c>
       <c r="R7" t="n">
-        <v>47.89722928790943</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>18.22714793619897</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>47.89722928790943</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>106.3067152763445</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>144.6751566710423</v>
       </c>
       <c r="G8" t="n">
         <v>144.6751566710423</v>
@@ -1181,19 +1181,19 @@
         <v>21.12316271950942</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>51.64041629783932</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>52.14612296487627</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>95.35828607663997</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>144.6751566710423</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361794</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>9.177839155320683</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>89.89189848691538</v>
+        <v>126.9717558726174</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534533</v>
+        <v>87.61309309741586</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292581</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.91797013962</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.7896341621533</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.7611135943449</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.22061871095706</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.5878658187009</v>
       </c>
       <c r="H14" t="n">
-        <v>291.1886223546606</v>
+        <v>291.1886223546605</v>
       </c>
       <c r="I14" t="n">
-        <v>10.83870539066912</v>
+        <v>28.7057984936269</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>101.5799308037513</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4564987129907</v>
       </c>
       <c r="U14" t="n">
         <v>250.9684631721218</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>74.26435037534975</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>87.87167834458529</v>
       </c>
       <c r="I15" t="n">
-        <v>12.66699296480351</v>
+        <v>12.66699296480347</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>102.2925868852663</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>79.08397918268442</v>
+        <v>165.8760502306935</v>
       </c>
       <c r="H16" t="n">
         <v>143.423529898763</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.84878806682684</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295159</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943593</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.0474723022158</v>
+        <v>42.0474723022156</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998806</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453094</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2564,13 +2564,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2612,16 +2612,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943534</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453021</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221586</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401421</v>
@@ -2776,7 +2776,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998809</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2950,7 +2950,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659985</v>
@@ -2959,16 +2959,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707165</v>
+        <v>113.8108456707162</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,7 +3241,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.241665994756</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3797,16 +3797,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943538</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707165</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424834</v>
@@ -3986,10 +3986,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
         <v>255.241665994756</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4034,16 +4034,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
         <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943531</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424834</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
         <v>0.5500836593369149</v>
@@ -4331,16 +4331,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M2" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="N2" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N2" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="O2" t="n">
         <v>27.50418296684575</v>
@@ -4352,28 +4352,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4419,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N3" t="n">
-        <v>20.97193951221988</v>
+        <v>19.38528659390645</v>
       </c>
       <c r="O3" t="n">
         <v>26.19257187820077</v>
@@ -4440,13 +4440,13 @@
         <v>14.44108515774386</v>
       </c>
       <c r="U3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
         <v>7.495584408540386</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D4" t="n">
         <v>7.495584408540386</v>
@@ -4474,10 +4474,10 @@
         <v>7.495584408540386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H4" t="n">
         <v>0.5500836593369149</v>
@@ -4495,10 +4495,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
@@ -4507,28 +4507,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y4" t="n">
         <v>13.6131814684388</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="C5" t="n">
-        <v>100.5938577125468</v>
+        <v>143.2078774668811</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5938577125468</v>
+        <v>143.2078774668811</v>
       </c>
       <c r="E5" t="n">
-        <v>100.5938577125468</v>
+        <v>100.593857712547</v>
       </c>
       <c r="F5" t="n">
-        <v>52.21281802778975</v>
+        <v>52.21281802778989</v>
       </c>
       <c r="G5" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="H5" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="I5" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="J5" t="n">
-        <v>3.831778343032754</v>
+        <v>51.25003533806322</v>
       </c>
       <c r="K5" t="n">
-        <v>3.831778343032754</v>
+        <v>51.25003533806322</v>
       </c>
       <c r="L5" t="n">
-        <v>51.25003533806309</v>
+        <v>60.64474018827927</v>
       </c>
       <c r="M5" t="n">
-        <v>98.66829233309342</v>
+        <v>102.7675969440771</v>
       </c>
       <c r="N5" t="n">
-        <v>146.0865493281237</v>
+        <v>150.1858539391076</v>
       </c>
       <c r="O5" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="P5" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="Q5" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="R5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="S5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="T5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="U5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="V5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="W5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="X5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="Y5" t="n">
-        <v>143.2078774668807</v>
+        <v>191.5889171516382</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5938577125468</v>
+        <v>143.2078774668811</v>
       </c>
       <c r="C6" t="n">
-        <v>100.5938577125468</v>
+        <v>143.2078774668811</v>
       </c>
       <c r="D6" t="n">
-        <v>52.21281802778975</v>
+        <v>94.82683778212396</v>
       </c>
       <c r="E6" t="n">
-        <v>52.21281802778975</v>
+        <v>94.82683778212396</v>
       </c>
       <c r="F6" t="n">
-        <v>52.21281802778975</v>
+        <v>94.82683778212396</v>
       </c>
       <c r="G6" t="n">
-        <v>52.21281802778975</v>
+        <v>46.44579809736683</v>
       </c>
       <c r="H6" t="n">
-        <v>3.831778343032754</v>
+        <v>46.44579809736683</v>
       </c>
       <c r="I6" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="J6" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="K6" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="L6" t="n">
-        <v>45.4077820645044</v>
+        <v>24.76867152040841</v>
       </c>
       <c r="M6" t="n">
-        <v>72.18692851543869</v>
+        <v>72.18692851543886</v>
       </c>
       <c r="N6" t="n">
-        <v>119.605185510469</v>
+        <v>119.6051855104693</v>
       </c>
       <c r="O6" t="n">
-        <v>167.0234425054994</v>
+        <v>167.0234425054998</v>
       </c>
       <c r="P6" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="Q6" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="R6" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="S6" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="T6" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="U6" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="V6" t="n">
-        <v>148.9748973973037</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="W6" t="n">
-        <v>148.9748973973037</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="X6" t="n">
-        <v>148.9748973973037</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="Y6" t="n">
-        <v>148.9748973973037</v>
+        <v>191.5889171516382</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="C7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="D7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="E7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="F7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="G7" t="n">
-        <v>52.21281802778975</v>
+        <v>48.3485590338389</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21281802778975</v>
+        <v>48.3485590338389</v>
       </c>
       <c r="I7" t="n">
-        <v>3.831778343032754</v>
+        <v>48.3485590338389</v>
       </c>
       <c r="J7" t="n">
-        <v>3.831778343032754</v>
+        <v>3.831778343032764</v>
       </c>
       <c r="K7" t="n">
-        <v>3.831778343032754</v>
+        <v>49.33414616654687</v>
       </c>
       <c r="L7" t="n">
-        <v>49.3341461665467</v>
+        <v>96.75240316157732</v>
       </c>
       <c r="M7" t="n">
-        <v>96.75240316157704</v>
+        <v>144.1706601566078</v>
       </c>
       <c r="N7" t="n">
-        <v>144.1706601566074</v>
+        <v>144.1706601566078</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="P7" t="n">
-        <v>191.5889171516377</v>
+        <v>191.5889171516382</v>
       </c>
       <c r="Q7" t="n">
-        <v>163.5218989449677</v>
+        <v>163.5218989449683</v>
       </c>
       <c r="R7" t="n">
-        <v>115.1408592602107</v>
+        <v>163.5218989449683</v>
       </c>
       <c r="S7" t="n">
-        <v>115.1408592602107</v>
+        <v>163.5218989449683</v>
       </c>
       <c r="T7" t="n">
-        <v>115.1408592602107</v>
+        <v>145.1106384033532</v>
       </c>
       <c r="U7" t="n">
-        <v>115.1408592602107</v>
+        <v>145.1106384033532</v>
       </c>
       <c r="V7" t="n">
-        <v>66.75981957545375</v>
+        <v>145.1106384033532</v>
       </c>
       <c r="W7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="X7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.75981957545375</v>
+        <v>96.72959871859602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="C8" t="n">
-        <v>303.8470563135668</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="D8" t="n">
-        <v>303.8470563135668</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="E8" t="n">
-        <v>303.8470563135668</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="F8" t="n">
         <v>157.7105344236251</v>
@@ -4829,10 +4829,10 @@
         <v>557.3640986846646</v>
       </c>
       <c r="S8" t="n">
-        <v>411.2275767947228</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="T8" t="n">
-        <v>411.2275767947228</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="U8" t="n">
         <v>411.2275767947228</v>
@@ -4841,13 +4841,13 @@
         <v>411.2275767947228</v>
       </c>
       <c r="W8" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="X8" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="Y8" t="n">
-        <v>411.2275767947228</v>
+        <v>265.0910549047811</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.4957059214089</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C9" t="n">
-        <v>347.4957059214089</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D9" t="n">
-        <v>201.3591840314672</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E9" t="n">
-        <v>201.3591840314672</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F9" t="n">
-        <v>201.3591840314672</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>63.73604919816754</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>63.73604919816754</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
         <v>11.57401253368338</v>
@@ -4884,13 +4884,13 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498755</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>110.1287797974577</v>
       </c>
       <c r="M9" t="n">
-        <v>243.6629351576685</v>
+        <v>244.4944128384901</v>
       </c>
       <c r="N9" t="n">
         <v>386.8913402620004</v>
@@ -4911,22 +4911,22 @@
         <v>546.3050792910236</v>
       </c>
       <c r="T9" t="n">
-        <v>493.6322278113506</v>
+        <v>400.1685574010819</v>
       </c>
       <c r="U9" t="n">
-        <v>493.6322278113506</v>
+        <v>254.0320355111402</v>
       </c>
       <c r="V9" t="n">
-        <v>493.6322278113506</v>
+        <v>107.8955136211985</v>
       </c>
       <c r="W9" t="n">
-        <v>493.6322278113506</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X9" t="n">
-        <v>493.6322278113506</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y9" t="n">
-        <v>493.6322278113506</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>186.357140841421</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C10" t="n">
-        <v>186.357140841421</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="D10" t="n">
-        <v>186.357140841421</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E10" t="n">
-        <v>40.22061895147928</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F10" t="n">
-        <v>40.22061895147928</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G10" t="n">
-        <v>40.22061895147928</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="H10" t="n">
-        <v>40.22061895147928</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>40.22061895147928</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
         <v>11.57401253368338</v>
@@ -4966,16 +4966,16 @@
         <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>154.8024176380152</v>
+        <v>41.62866138960601</v>
       </c>
       <c r="M10" t="n">
-        <v>292.2438164755054</v>
+        <v>184.8570664939379</v>
       </c>
       <c r="N10" t="n">
-        <v>435.4722215798372</v>
+        <v>328.0854715982697</v>
       </c>
       <c r="O10" t="n">
-        <v>578.700626684169</v>
+        <v>471.3138767026015</v>
       </c>
       <c r="P10" t="n">
         <v>578.700626684169</v>
@@ -4984,28 +4984,28 @@
         <v>569.430082082835</v>
       </c>
       <c r="R10" t="n">
-        <v>569.430082082835</v>
+        <v>432.1013551747965</v>
       </c>
       <c r="S10" t="n">
-        <v>569.430082082835</v>
+        <v>432.1013551747965</v>
       </c>
       <c r="T10" t="n">
-        <v>569.430082082835</v>
+        <v>432.1013551747965</v>
       </c>
       <c r="U10" t="n">
-        <v>478.6301846213044</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="V10" t="n">
-        <v>478.6301846213044</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="W10" t="n">
-        <v>478.6301846213044</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="X10" t="n">
-        <v>332.4936627313626</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.4936627313626</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675983</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.355622735569</v>
+        <v>905.5765942093286</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.355622735569</v>
+        <v>905.5765942093286</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373248</v>
+        <v>905.5765942093286</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477173</v>
+        <v>494.5906894197211</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649824</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2788.565186649824</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.099428388744</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>2075.917979740104</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.9108438165264</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9746608886195</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D13" t="n">
-        <v>604.8580214762837</v>
+        <v>494.2172172304618</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938906</v>
+        <v>346.3041236480686</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>199.4141761501583</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.621931827995</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.697475415547</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1615.697475415547</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.280305378586</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1326.280305378586</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.487726235056</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1932.681203842033</v>
+        <v>1967.554508290732</v>
       </c>
       <c r="C14" t="n">
-        <v>1563.718686901621</v>
+        <v>1967.554508290732</v>
       </c>
       <c r="D14" t="n">
-        <v>1205.45298829487</v>
+        <v>1609.288809683981</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.45298829487</v>
+        <v>1223.500557085737</v>
       </c>
       <c r="F14" t="n">
-        <v>794.4670835052628</v>
+        <v>812.5146522961294</v>
       </c>
       <c r="G14" t="n">
-        <v>379.731865506575</v>
+        <v>397.7794342974416</v>
       </c>
       <c r="H14" t="n">
-        <v>85.6019439362109</v>
+        <v>103.6495127270774</v>
       </c>
       <c r="I14" t="n">
-        <v>74.65375667290876</v>
+        <v>74.6537566729088</v>
       </c>
       <c r="J14" t="n">
         <v>291.5854644202686</v>
@@ -5288,40 +5288,40 @@
         <v>1762.20986382171</v>
       </c>
       <c r="N14" t="n">
-        <v>2367.964411395337</v>
+        <v>2367.964411395338</v>
       </c>
       <c r="O14" t="n">
-        <v>2926.625992245017</v>
+        <v>2926.625992245018</v>
       </c>
       <c r="P14" t="n">
-        <v>3368.929725548788</v>
+        <v>3368.929725548789</v>
       </c>
       <c r="Q14" t="n">
-        <v>3652.908662472306</v>
+        <v>3652.908662472308</v>
       </c>
       <c r="R14" t="n">
-        <v>3732.687833645438</v>
+        <v>3732.68783364544</v>
       </c>
       <c r="S14" t="n">
-        <v>3630.081842934578</v>
+        <v>3630.08184293458</v>
       </c>
       <c r="T14" t="n">
-        <v>3630.081842934578</v>
+        <v>3425.580329083074</v>
       </c>
       <c r="U14" t="n">
-        <v>3376.578344780919</v>
+        <v>3172.076830929416</v>
       </c>
       <c r="V14" t="n">
-        <v>3045.515457437349</v>
+        <v>3097.06233560078</v>
       </c>
       <c r="W14" t="n">
-        <v>2692.746802167234</v>
+        <v>2744.293680330665</v>
       </c>
       <c r="X14" t="n">
-        <v>2319.281043906155</v>
+        <v>2744.293680330665</v>
       </c>
       <c r="Y14" t="n">
-        <v>2319.281043906155</v>
+        <v>2354.154348354853</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>87.44869906159917</v>
       </c>
       <c r="I15" t="n">
-        <v>74.65375667290876</v>
+        <v>74.6537566729088</v>
       </c>
       <c r="J15" t="n">
-        <v>185.0389487192674</v>
+        <v>185.0389487192676</v>
       </c>
       <c r="K15" t="n">
-        <v>451.8596485461272</v>
+        <v>451.8596485461276</v>
       </c>
       <c r="L15" t="n">
-        <v>856.9555483380171</v>
+        <v>571.7009580467945</v>
       </c>
       <c r="M15" t="n">
-        <v>1349.040224428221</v>
+        <v>1063.785634136999</v>
       </c>
       <c r="N15" t="n">
-        <v>1868.557562566627</v>
+        <v>1583.302972275405</v>
       </c>
       <c r="O15" t="n">
-        <v>2321.594635814184</v>
+        <v>2036.340045522962</v>
       </c>
       <c r="P15" t="n">
         <v>2380.60917101475</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>618.4616386913812</v>
+        <v>924.7738090809858</v>
       </c>
       <c r="C16" t="n">
-        <v>449.5254557634743</v>
+        <v>924.7738090809858</v>
       </c>
       <c r="D16" t="n">
-        <v>299.4088163511385</v>
+        <v>774.65716966865</v>
       </c>
       <c r="E16" t="n">
-        <v>299.4088163511385</v>
+        <v>626.7440760862569</v>
       </c>
       <c r="F16" t="n">
-        <v>299.4088163511385</v>
+        <v>479.8541285883465</v>
       </c>
       <c r="G16" t="n">
-        <v>219.5260090959017</v>
+        <v>312.3025626987571</v>
       </c>
       <c r="H16" t="n">
-        <v>74.65375667290876</v>
+        <v>167.4303102757642</v>
       </c>
       <c r="I16" t="n">
-        <v>74.65375667290876</v>
+        <v>74.6537566729088</v>
       </c>
       <c r="J16" t="n">
-        <v>130.258402797076</v>
+        <v>130.2584027970761</v>
       </c>
       <c r="K16" t="n">
-        <v>351.4707541650112</v>
+        <v>351.4707541650114</v>
       </c>
       <c r="L16" t="n">
-        <v>690.0728377719805</v>
+        <v>690.0728377719809</v>
       </c>
       <c r="M16" t="n">
         <v>1057.470382514709</v>
@@ -5449,37 +5449,37 @@
         <v>1421.566651239198</v>
       </c>
       <c r="O16" t="n">
-        <v>1741.852190580544</v>
+        <v>1741.852190580545</v>
       </c>
       <c r="P16" t="n">
-        <v>1992.391118294889</v>
+        <v>1992.39111829489</v>
       </c>
       <c r="Q16" t="n">
-        <v>2082.416205238323</v>
+        <v>2082.416205238324</v>
       </c>
       <c r="R16" t="n">
-        <v>2082.416205238323</v>
+        <v>2082.416205238324</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.416205238323</v>
+        <v>2082.416205238324</v>
       </c>
       <c r="T16" t="n">
-        <v>1861.295928405804</v>
+        <v>1861.295928405805</v>
       </c>
       <c r="U16" t="n">
-        <v>1572.201312662485</v>
+        <v>1572.201312662486</v>
       </c>
       <c r="V16" t="n">
-        <v>1317.516824456598</v>
+        <v>1317.516824456599</v>
       </c>
       <c r="W16" t="n">
-        <v>1028.099654419638</v>
+        <v>1028.099654419639</v>
       </c>
       <c r="X16" t="n">
-        <v>800.1101035216209</v>
+        <v>1028.099654419639</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.1101035216209</v>
+        <v>1028.099654419639</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
         <v>1522.315654538067</v>
@@ -5607,7 +5607,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502132</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477751</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609083</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645594</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254984</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,10 +5750,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5789,13 +5789,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
@@ -5832,25 +5832,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375538</v>
+        <v>2024.474257345018</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749449</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H22" t="n">
-        <v>140.057470989794</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443606</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
         <v>1784.429621497863</v>
@@ -5975,16 +5975,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076836</v>
@@ -5993,7 +5993,7 @@
         <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746739</v>
@@ -6008,16 +6008,16 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400161</v>
@@ -6063,31 +6063,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>326.515925275411</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6175,19 +6175,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6209,34 +6209,34 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511625</v>
+        <v>165.6257438946547</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511625</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L27" t="n">
-        <v>326.515925275411</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M27" t="n">
-        <v>875.4343898857001</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477704</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609032</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,37 +6397,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039792</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042789</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6652,19 +6652,19 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6707,10 +6707,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233288</v>
@@ -6719,7 +6719,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
@@ -6780,22 +6780,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>326.515925275411</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898857001</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6856,25 +6856,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6917,31 +6917,31 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
@@ -6965,22 +6965,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609053</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7117,28 +7117,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7193,31 +7193,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
         <v>1084.28233189698</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477725</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315377</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749436</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897924</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.174278704279</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511625</v>
@@ -7412,19 +7412,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
@@ -7436,22 +7436,22 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
         <v>2476.13298385146</v>
@@ -7500,10 +7500,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502089</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897932</v>
@@ -7567,52 +7567,52 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7667,10 +7667,10 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
         <v>4188.091007924547</v>
@@ -7719,13 +7719,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
         <v>519.5985603334505</v>
@@ -7737,10 +7737,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502085</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477701</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609029</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K2" t="n">
-        <v>58.51642266066631</v>
+        <v>51.64037691895487</v>
       </c>
       <c r="L2" t="n">
-        <v>33.66599273695107</v>
+        <v>33.38817270698293</v>
       </c>
       <c r="M2" t="n">
-        <v>4.41787286249307</v>
+        <v>4.69569289246121</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.977105843813376</v>
+        <v>13.85315158552481</v>
       </c>
       <c r="P2" t="n">
         <v>40.80429423377234</v>
@@ -8143,13 +8143,13 @@
         <v>53.44724320024197</v>
       </c>
       <c r="M4" t="n">
-        <v>52.40982870423341</v>
+        <v>52.68764873420156</v>
       </c>
       <c r="N4" t="n">
         <v>43.66145635451461</v>
       </c>
       <c r="O4" t="n">
-        <v>61.37159796783205</v>
+        <v>61.09377793786389</v>
       </c>
       <c r="P4" t="n">
         <v>65.88487562446231</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.13964041725632</v>
+        <v>97.03686970516581</v>
       </c>
       <c r="K5" t="n">
-        <v>22.39655431648794</v>
+        <v>22.39655431648782</v>
       </c>
       <c r="L5" t="n">
-        <v>38.40762842910547</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>5.348889130538055</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>14.2039531454732</v>
+        <v>10.0632414172071</v>
       </c>
       <c r="P5" t="n">
-        <v>7.744748072491745</v>
+        <v>7.744748072491632</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.47532326113028</v>
+        <v>54.47532326113017</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>48.27515941146426</v>
+        <v>48.27515941146422</v>
       </c>
       <c r="K6" t="n">
-        <v>3.565669189539932</v>
+        <v>3.565669189539847</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.83618906232664</v>
+        <v>33.83618906232657</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>48.01864466470276</v>
+        <v>93.98063236522199</v>
       </c>
       <c r="L7" t="n">
-        <v>77.20144416373026</v>
+        <v>79.13668575112062</v>
       </c>
       <c r="M7" t="n">
-        <v>77.5436610695464</v>
+        <v>77.54366106954647</v>
       </c>
       <c r="N7" t="n">
-        <v>68.90184033031932</v>
+        <v>21.00461104240982</v>
       </c>
       <c r="O7" t="n">
-        <v>87.81665891434639</v>
+        <v>87.81665891434648</v>
       </c>
       <c r="P7" t="n">
-        <v>53.41248463744205</v>
+        <v>53.41248463744201</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8614,10 +8614,10 @@
         <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
-        <v>142.8754692792705</v>
+        <v>28.55854377582686</v>
       </c>
       <c r="M10" t="n">
-        <v>133.6409828117966</v>
+        <v>139.4864436873943</v>
       </c>
       <c r="N10" t="n">
         <v>131.6729248303088</v>
@@ -8626,7 +8626,7 @@
         <v>153.1837627278771</v>
       </c>
       <c r="P10" t="n">
-        <v>26.53509868619516</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>323.3086325560376</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873203</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881757</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589019</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174105</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.44830449390025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07086658759243392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>130.8051895480712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17.86709310295787</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4564987129907</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>253.4879080947852</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>77.53939329667098</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>86.79207104800909</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.84878806682687</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.1984871414701</v>
+        <v>82.19848714147005</v>
       </c>
       <c r="S16" t="n">
         <v>187.1591513285542</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-4.276898835087195e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
       <c r="F43" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.26663132707472e-12</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>948721.0135402542</v>
+        <v>948721.0135402539</v>
       </c>
     </row>
     <row r="6">
@@ -26314,25 +26314,25 @@
         <v>307678.6557906249</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991064</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>255747.8242281904</v>
+      </c>
+      <c r="F2" t="n">
+        <v>269758.2370134019</v>
+      </c>
+      <c r="G2" t="n">
         <v>307890.6636991064</v>
       </c>
-      <c r="E2" t="n">
-        <v>255747.8242281906</v>
-      </c>
-      <c r="F2" t="n">
-        <v>269758.2370134018</v>
-      </c>
-      <c r="G2" t="n">
-        <v>307890.6636991061</v>
-      </c>
       <c r="H2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.663699106</v>
       </c>
       <c r="J2" t="n">
         <v>307890.6636991061</v>
@@ -26341,10 +26341,10 @@
         <v>307890.6636991061</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
@@ -26353,7 +26353,7 @@
         <v>307890.6636991062</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>319725.1962388911</v>
       </c>
       <c r="C3" t="n">
-        <v>65327.33863394641</v>
+        <v>65327.33863394667</v>
       </c>
       <c r="D3" t="n">
-        <v>135602.442250425</v>
+        <v>135602.4422504248</v>
       </c>
       <c r="E3" t="n">
-        <v>670972.9537958344</v>
+        <v>670972.9537958341</v>
       </c>
       <c r="F3" t="n">
-        <v>94804.48211907585</v>
+        <v>94804.48211907649</v>
       </c>
       <c r="G3" t="n">
-        <v>142564.9280656561</v>
+        <v>142564.9280656555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044465</v>
+        <v>1799.076112044402</v>
       </c>
       <c r="K3" t="n">
-        <v>10557.53996691788</v>
+        <v>10557.53996691792</v>
       </c>
       <c r="L3" t="n">
-        <v>49781.78430109561</v>
+        <v>49781.78430109579</v>
       </c>
       <c r="M3" t="n">
-        <v>171134.9405490227</v>
+        <v>171134.9405490224</v>
       </c>
       <c r="N3" t="n">
-        <v>24926.34399050157</v>
+        <v>24926.34399050179</v>
       </c>
       <c r="O3" t="n">
-        <v>31063.99003973167</v>
+        <v>31063.99003973129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>350365.4287484845</v>
       </c>
       <c r="C4" t="n">
-        <v>331559.1133141151</v>
+        <v>331559.113314115</v>
       </c>
       <c r="D4" t="n">
-        <v>289929.9471536342</v>
+        <v>289929.9471536343</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.23499712858</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="F4" t="n">
         <v>11652.89964623107</v>
       </c>
       <c r="G4" t="n">
+        <v>42789.59501104714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42789.59501104696</v>
+      </c>
+      <c r="I4" t="n">
         <v>42789.59501104693</v>
       </c>
-      <c r="H4" t="n">
-        <v>42789.59501104694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42789.59501104694</v>
-      </c>
       <c r="J4" t="n">
-        <v>42789.59501104687</v>
+        <v>42789.59501104691</v>
       </c>
       <c r="K4" t="n">
-        <v>42789.59501104688</v>
+        <v>42789.59501104691</v>
       </c>
       <c r="L4" t="n">
-        <v>42789.59501104695</v>
+        <v>42789.59501104697</v>
       </c>
       <c r="M4" t="n">
         <v>42789.59501104694</v>
       </c>
       <c r="N4" t="n">
-        <v>42789.59501104694</v>
+        <v>42789.59501104696</v>
       </c>
       <c r="O4" t="n">
-        <v>42789.59501104687</v>
+        <v>42789.59501104691</v>
       </c>
       <c r="P4" t="n">
-        <v>42789.59501104687</v>
+        <v>42789.59501104691</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26470,31 @@
         <v>41226.73635463382</v>
       </c>
       <c r="C5" t="n">
-        <v>44967.50091786109</v>
+        <v>44967.50091786111</v>
       </c>
       <c r="D5" t="n">
         <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82304.42556324913</v>
+        <v>82304.42556324917</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
@@ -26503,13 +26503,13 @@
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-403638.7055513845</v>
+        <v>-403640.118937441</v>
       </c>
       <c r="C6" t="n">
-        <v>-133963.2891668163</v>
+        <v>-133963.2891668164</v>
       </c>
       <c r="D6" t="n">
-        <v>-171179.8510537373</v>
+        <v>-171179.8510537372</v>
       </c>
       <c r="E6" t="n">
-        <v>-501131.7051261658</v>
+        <v>-501479.3240559714</v>
       </c>
       <c r="F6" t="n">
-        <v>80996.42968484573</v>
+        <v>80742.21350694046</v>
       </c>
       <c r="G6" t="n">
-        <v>27429.70652024777</v>
+        <v>27429.70652024847</v>
       </c>
       <c r="H6" t="n">
         <v>169994.6345859038</v>
       </c>
       <c r="I6" t="n">
-        <v>169994.634585904</v>
+        <v>169994.6345859037</v>
       </c>
       <c r="J6" t="n">
         <v>168195.5584738595</v>
@@ -26549,16 +26549,16 @@
         <v>159437.094618986</v>
       </c>
       <c r="L6" t="n">
-        <v>120212.8502848083</v>
+        <v>120212.850284808</v>
       </c>
       <c r="M6" t="n">
-        <v>-1140.305963118823</v>
+        <v>-1140.305963118415</v>
       </c>
       <c r="N6" t="n">
-        <v>145068.2905954025</v>
+        <v>145068.2905954022</v>
       </c>
       <c r="O6" t="n">
-        <v>138930.6445461724</v>
+        <v>138930.6445461727</v>
       </c>
       <c r="P6" t="n">
         <v>169994.634585904</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221413</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="J2" t="n">
         <v>31.61020235221391</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>31.6102023522139</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221393</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.61020235221385</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221387</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>329.4070079604484</v>
       </c>
       <c r="C3" t="n">
-        <v>386.5940081264313</v>
+        <v>386.5940081264315</v>
       </c>
       <c r="D3" t="n">
         <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1172.824334488003</v>
+        <v>1172.824334488004</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,19 +26790,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="D4" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>933.1719584113595</v>
+        <v>933.1719584113599</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-1.811883976188255e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221418</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.060573933704291e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>329.4070079604484</v>
       </c>
       <c r="C3" t="n">
-        <v>57.18700016598285</v>
+        <v>57.18700016598308</v>
       </c>
       <c r="D3" t="n">
-        <v>123.2351580747191</v>
+        <v>123.2351580747189</v>
       </c>
       <c r="E3" t="n">
-        <v>579.9475343921481</v>
+        <v>579.9475343921479</v>
       </c>
       <c r="F3" t="n">
-        <v>83.04763389470509</v>
+        <v>83.04763389470554</v>
       </c>
       <c r="G3" t="n">
-        <v>105.3355361321196</v>
+        <v>105.3355361321189</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,22 +27012,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>41.02118354619799</v>
+        <v>41.02118354619812</v>
       </c>
       <c r="D4" t="n">
-        <v>96.77792738313283</v>
+        <v>96.77792738313271</v>
       </c>
       <c r="E4" t="n">
-        <v>686.7262987312507</v>
+        <v>686.7262987312505</v>
       </c>
       <c r="F4" t="n">
-        <v>101.7705030090665</v>
+        <v>101.7705030090672</v>
       </c>
       <c r="G4" t="n">
-        <v>129.0831537775933</v>
+        <v>129.0831537775924</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>6.876045741711778</v>
       </c>
       <c r="K4" t="n">
-        <v>41.02118354619799</v>
+        <v>41.02118354619812</v>
       </c>
       <c r="L4" t="n">
-        <v>96.77792738313261</v>
+        <v>96.77792738313271</v>
       </c>
       <c r="M4" t="n">
-        <v>686.7262987312509</v>
+        <v>686.7262987312507</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7705030090663</v>
+        <v>101.7705030090672</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0831537775936</v>
+        <v>129.0831537775923</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>41.02118354619799</v>
+        <v>41.02118354619812</v>
       </c>
       <c r="L4" t="n">
-        <v>96.77792738313283</v>
+        <v>96.77792738313271</v>
       </c>
       <c r="M4" t="n">
-        <v>686.7262987312507</v>
+        <v>686.7262987312505</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7705030090665</v>
+        <v>101.7705030090672</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0831537775933</v>
+        <v>129.0831537775924</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>319.8564131057644</v>
+        <v>325.9128341950639</v>
       </c>
       <c r="I2" t="n">
         <v>159.4227692713298</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>66.68474421734859</v>
+        <v>60.62832312804917</v>
       </c>
       <c r="S2" t="n">
         <v>178.8437391585118</v>
       </c>
       <c r="T2" t="n">
-        <v>217.2989483486666</v>
+        <v>210.4229026069551</v>
       </c>
       <c r="U2" t="n">
         <v>251.2397129655779</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.3618929143421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>191.2524109987708</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8947678817351</v>
+        <v>219.0187221400237</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.7755590926379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>142.5590519289129</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.396966721153</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9458601503032</v>
+        <v>150.0698144085918</v>
       </c>
       <c r="I4" t="n">
         <v>137.5868948890097</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R4" t="n">
         <v>143.7083774162388</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>323.0850122142169</v>
+        <v>317.375662483098</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>339.742490515471</v>
       </c>
       <c r="F5" t="n">
-        <v>358.978816453802</v>
+        <v>358.9788164538019</v>
       </c>
       <c r="G5" t="n">
-        <v>365.8513614608882</v>
+        <v>365.8513614608881</v>
       </c>
       <c r="H5" t="n">
         <v>323.5583965450141</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4.346216842297778</v>
+        <v>52.24344613020715</v>
       </c>
       <c r="S5" t="n">
-        <v>173.6049501483316</v>
+        <v>173.6049501483315</v>
       </c>
       <c r="T5" t="n">
         <v>216.2925720944893</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.6359543619579</v>
+        <v>118.6359543619578</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>99.54783627672933</v>
+        <v>99.5478362767292</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5119753344104</v>
+        <v>88.61474604650083</v>
       </c>
       <c r="H6" t="n">
-        <v>56.30727149675306</v>
+        <v>104.2045007846625</v>
       </c>
       <c r="I6" t="n">
-        <v>60.76679357035389</v>
+        <v>18.57891401356314</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48.52929850134348</v>
+        <v>48.52929850134345</v>
       </c>
       <c r="S6" t="n">
         <v>156.2376463452016</v>
@@ -27752,7 +27752,7 @@
         <v>225.8866753817117</v>
       </c>
       <c r="V6" t="n">
-        <v>190.6127075926346</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.8923110903057</v>
+        <v>119.3966133345835</v>
       </c>
       <c r="H7" t="n">
         <v>156.0289931640355</v>
       </c>
       <c r="I7" t="n">
-        <v>86.5884427068532</v>
+        <v>134.4856719947626</v>
       </c>
       <c r="J7" t="n">
-        <v>44.07161288389809</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>98.05035939756615</v>
+        <v>145.9475886854756</v>
       </c>
       <c r="S7" t="n">
         <v>211.8674060110974</v>
       </c>
       <c r="T7" t="n">
-        <v>224.9669142837008</v>
+        <v>206.7397663475018</v>
       </c>
       <c r="U7" t="n">
         <v>286.2810037163473</v>
       </c>
       <c r="V7" t="n">
-        <v>204.2404140359186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>238.6257690486814</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>258.966176494663</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>262.2008890706692</v>
+        <v>300.5693304653669</v>
       </c>
       <c r="G8" t="n">
         <v>268.578016356852</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17.64046216220322</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
         <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1816877488572</v>
+        <v>106.506531077815</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463708</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.85802697882508</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>2.769908893596494</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
         <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>51.64041629783932</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>143.5984830531637</v>
+        <v>51.06944934699769</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8692364442482</v>
+        <v>81.19407977320597</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838301</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>156.3366970842796</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.15682351089504</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>1.758805975526911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>9.378033466811644</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.36014035361794</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>207.9945896499623</v>
@@ -28065,7 +28065,7 @@
         <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>196.3769837384737</v>
+        <v>159.2971263527717</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,22 +28138,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.525675927473691e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221329</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221387</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221363</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221385</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221385</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
   </sheetData>
@@ -31139,10 +31139,10 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250447</v>
+        <v>136.6150781095766</v>
       </c>
       <c r="O3" t="n">
-        <v>147.8696104706878</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
         <v>135.2992670998302</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.554146766337411</v>
+        <v>1.554146766337412</v>
       </c>
       <c r="H5" t="n">
-        <v>15.91640557075301</v>
+        <v>15.91640557075302</v>
       </c>
       <c r="I5" t="n">
-        <v>59.9162432092231</v>
+        <v>59.91624320922313</v>
       </c>
       <c r="J5" t="n">
         <v>131.90626410943</v>
       </c>
       <c r="K5" t="n">
-        <v>197.6932967284926</v>
+        <v>197.6932967284927</v>
       </c>
       <c r="L5" t="n">
-        <v>245.2560158287912</v>
+        <v>245.2560158287913</v>
       </c>
       <c r="M5" t="n">
-        <v>272.8945733846441</v>
+        <v>272.8945733846443</v>
       </c>
       <c r="N5" t="n">
-        <v>277.3102928845003</v>
+        <v>277.3102928845005</v>
       </c>
       <c r="O5" t="n">
-        <v>261.8562459767327</v>
+        <v>261.8562459767328</v>
       </c>
       <c r="P5" t="n">
-        <v>223.4882476827778</v>
+        <v>223.4882476827779</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.8303666133192</v>
+        <v>167.8303666133193</v>
       </c>
       <c r="R5" t="n">
-        <v>97.62567181094248</v>
+        <v>97.62567181094253</v>
       </c>
       <c r="S5" t="n">
-        <v>35.41511943791379</v>
+        <v>35.41511943791381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.80327746964202</v>
+        <v>6.803277469642024</v>
       </c>
       <c r="U5" t="n">
         <v>0.1243317413069929</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8315418288002484</v>
+        <v>0.831541828800249</v>
       </c>
       <c r="H6" t="n">
-        <v>8.030943451833979</v>
+        <v>8.030943451833984</v>
       </c>
       <c r="I6" t="n">
-        <v>28.62983928106119</v>
+        <v>28.62983928106121</v>
       </c>
       <c r="J6" t="n">
-        <v>78.56246725520244</v>
+        <v>78.56246725520248</v>
       </c>
       <c r="K6" t="n">
         <v>134.2757697848191</v>
       </c>
       <c r="L6" t="n">
-        <v>180.5503431348961</v>
+        <v>159.7027567267183</v>
       </c>
       <c r="M6" t="n">
-        <v>169.1836768017499</v>
+        <v>190.0312632099279</v>
       </c>
       <c r="N6" t="n">
-        <v>179.2389413712427</v>
+        <v>179.2389413712428</v>
       </c>
       <c r="O6" t="n">
-        <v>190.4934737323539</v>
+        <v>190.493473732354</v>
       </c>
       <c r="P6" t="n">
         <v>158.7880181680054</v>
@@ -31388,16 +31388,16 @@
         <v>106.1455850236949</v>
       </c>
       <c r="R6" t="n">
-        <v>51.62853565129966</v>
+        <v>51.62853565129969</v>
       </c>
       <c r="S6" t="n">
-        <v>15.44552475863618</v>
+        <v>15.44552475863619</v>
       </c>
       <c r="T6" t="n">
-        <v>3.351697108190474</v>
+        <v>3.351697108190476</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05470669926317426</v>
+        <v>0.05470669926317429</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6971367359656957</v>
+        <v>0.697136735965696</v>
       </c>
       <c r="H7" t="n">
-        <v>6.198179343404099</v>
+        <v>6.198179343404102</v>
       </c>
       <c r="I7" t="n">
-        <v>20.96480293249565</v>
+        <v>20.96480293249567</v>
       </c>
       <c r="J7" t="n">
-        <v>49.28756723277468</v>
+        <v>49.28756723277471</v>
       </c>
       <c r="K7" t="n">
-        <v>80.99461350583262</v>
+        <v>80.99461350583267</v>
       </c>
       <c r="L7" t="n">
         <v>103.6452198180272</v>
@@ -31455,28 +31455,28 @@
         <v>109.2793521659681</v>
       </c>
       <c r="N7" t="n">
-        <v>106.6809334228233</v>
+        <v>106.6809334228234</v>
       </c>
       <c r="O7" t="n">
-        <v>98.53710882540582</v>
+        <v>98.53710882540588</v>
       </c>
       <c r="P7" t="n">
-        <v>84.31551941170557</v>
+        <v>84.31551941170561</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.37569522709112</v>
+        <v>58.37569522709116</v>
       </c>
       <c r="R7" t="n">
-        <v>31.34580269169391</v>
+        <v>31.34580269169393</v>
       </c>
       <c r="S7" t="n">
-        <v>12.14919202587489</v>
+        <v>12.1491920258749</v>
       </c>
       <c r="T7" t="n">
-        <v>2.978675144580699</v>
+        <v>2.978675144580701</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03802564014358344</v>
+        <v>0.03802564014358346</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,16 +31604,16 @@
         <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>237.7793976178837</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>276.0168687543755</v>
+        <v>275.1769923091012</v>
       </c>
       <c r="O9" t="n">
         <v>260.9122903671113</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.714871696434181</v>
+        <v>4.714871696434183</v>
       </c>
       <c r="H14" t="n">
-        <v>48.28617976110657</v>
+        <v>48.28617976110659</v>
       </c>
       <c r="I14" t="n">
-        <v>181.7700910767789</v>
+        <v>181.770091076779</v>
       </c>
       <c r="J14" t="n">
-        <v>400.1688416452309</v>
+        <v>400.1688416452311</v>
       </c>
       <c r="K14" t="n">
-        <v>599.74936055529</v>
+        <v>599.7493605552902</v>
       </c>
       <c r="L14" t="n">
-        <v>744.0421152350376</v>
+        <v>744.042115235038</v>
       </c>
       <c r="M14" t="n">
-        <v>827.890214766499</v>
+        <v>827.8902147664993</v>
       </c>
       <c r="N14" t="n">
-        <v>841.2863439739926</v>
+        <v>841.286343973993</v>
       </c>
       <c r="O14" t="n">
-        <v>794.4028385425752</v>
+        <v>794.4028385425755</v>
       </c>
       <c r="P14" t="n">
-        <v>678.0044435368562</v>
+        <v>678.0044435368566</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.153100908307</v>
+        <v>509.1531009083072</v>
       </c>
       <c r="R14" t="n">
-        <v>296.1705592011339</v>
+        <v>296.170559201134</v>
       </c>
       <c r="S14" t="n">
         <v>107.440138782494</v>
@@ -32029,7 +32029,7 @@
         <v>20.63935085114064</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3771897357147344</v>
+        <v>0.3771897357147345</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.522678757200611</v>
+        <v>2.522678757200612</v>
       </c>
       <c r="H15" t="n">
-        <v>24.36376589191117</v>
+        <v>24.36376589191118</v>
       </c>
       <c r="I15" t="n">
-        <v>86.85538703519649</v>
+        <v>86.85538703519653</v>
       </c>
       <c r="J15" t="n">
-        <v>238.3378206528876</v>
+        <v>238.3378206528877</v>
       </c>
       <c r="K15" t="n">
-        <v>407.3572973853285</v>
+        <v>407.3572973853287</v>
       </c>
       <c r="L15" t="n">
-        <v>547.7421573474397</v>
+        <v>259.6062075583257</v>
       </c>
       <c r="M15" t="n">
-        <v>639.1892622959617</v>
+        <v>639.1892622959621</v>
       </c>
       <c r="N15" t="n">
-        <v>656.1067001019256</v>
+        <v>656.1067001019259</v>
       </c>
       <c r="O15" t="n">
-        <v>600.2094497450067</v>
+        <v>600.209449745007</v>
       </c>
       <c r="P15" t="n">
-        <v>193.5850490310637</v>
+        <v>481.7209988201766</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.0177304805553</v>
+        <v>322.0177304805554</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.85765147694992</v>
+        <v>46.85765147694993</v>
       </c>
       <c r="T15" t="n">
         <v>10.16816569240071</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1659657077105666</v>
+        <v>0.1659657077105667</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.114929127765252</v>
+        <v>2.114929127765253</v>
       </c>
       <c r="H16" t="n">
         <v>18.80364260867653</v>
       </c>
       <c r="I16" t="n">
-        <v>63.60168686043141</v>
+        <v>63.60168686043144</v>
       </c>
       <c r="J16" t="n">
         <v>149.5254893330033</v>
@@ -32160,34 +32160,34 @@
         <v>245.7163113894538</v>
       </c>
       <c r="L16" t="n">
-        <v>314.4322814133903</v>
+        <v>314.4322814133904</v>
       </c>
       <c r="M16" t="n">
-        <v>331.5247540914203</v>
+        <v>331.5247540914204</v>
       </c>
       <c r="N16" t="n">
-        <v>323.6418364333865</v>
+        <v>323.6418364333866</v>
       </c>
       <c r="O16" t="n">
-        <v>298.9356188954013</v>
+        <v>298.9356188954014</v>
       </c>
       <c r="P16" t="n">
-        <v>255.79106468899</v>
+        <v>255.7910646889901</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.0964745076885</v>
+        <v>177.0964745076886</v>
       </c>
       <c r="R16" t="n">
-        <v>95.09490423569939</v>
+        <v>95.09490423569943</v>
       </c>
       <c r="S16" t="n">
-        <v>36.85744670841806</v>
+        <v>36.85744670841807</v>
       </c>
       <c r="T16" t="n">
-        <v>9.036515364087892</v>
+        <v>9.036515364087895</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1153597706053775</v>
+        <v>0.1153597706053776</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>602.6701715750696</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>392.4972796419684</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>638.5726240095473</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32789,10 +32789,10 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>248.9105443196368</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
         <v>696.597129487967</v>
@@ -32801,16 +32801,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>366.6975250682009</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>208.2975609288268</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
         <v>696.597129487967</v>
@@ -33041,10 +33041,10 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,10 +33263,10 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>223.8954149958791</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
@@ -33275,16 +33275,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P30" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33500,13 +33500,13 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>248.9105443196368</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
@@ -33518,7 +33518,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33971,16 +33971,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>593.4871659531818</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N39" t="n">
         <v>715.033982716063</v>
@@ -34220,13 +34220,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>663.587753333304</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383703</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171637</v>
@@ -34457,13 +34457,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>663.587753333304</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
+        <v>5.273366026243323</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.273366026243323</v>
       </c>
       <c r="P3" t="n">
         <v>1.324859685499973</v>
@@ -34863,13 +34863,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>47.89722928790943</v>
+        <v>9.489600858804096</v>
       </c>
       <c r="M5" t="n">
-        <v>47.89722928790943</v>
+        <v>42.54834015737154</v>
       </c>
       <c r="N5" t="n">
-        <v>47.8972292879094</v>
+        <v>47.89722928790957</v>
       </c>
       <c r="O5" t="n">
-        <v>45.96198770051915</v>
+        <v>41.82127597225317</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>41.99596335502187</v>
+        <v>21.14837694684409</v>
       </c>
       <c r="M6" t="n">
-        <v>27.04964287973161</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="N6" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="O6" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="P6" t="n">
-        <v>24.81361075367511</v>
+        <v>24.81361075367519</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>45.96198770051929</v>
       </c>
       <c r="L7" t="n">
-        <v>45.96198770051914</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="M7" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="N7" t="n">
-        <v>47.89722928790943</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>47.89722928790943</v>
+        <v>47.89722928790955</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>95.64536369586534</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6751566710423</v>
+        <v>143.8352802257679</v>
       </c>
       <c r="O9" t="n">
         <v>118.3160459226669</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>30.35823116759861</v>
+      </c>
+      <c r="M10" t="n">
         <v>144.6751566710423</v>
-      </c>
-      <c r="M10" t="n">
-        <v>138.8296957954446</v>
       </c>
       <c r="N10" t="n">
         <v>144.6751566710423</v>
@@ -35346,7 +35346,7 @@
         <v>144.6751566710423</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>108.4714646278459</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.1229371185447</v>
+        <v>219.1229371185448</v>
       </c>
       <c r="K14" t="n">
-        <v>379.6595095103094</v>
+        <v>379.6595095103096</v>
       </c>
       <c r="L14" t="n">
-        <v>508.2757002650504</v>
+        <v>508.2757002650507</v>
       </c>
       <c r="M14" t="n">
-        <v>597.5439815392263</v>
+        <v>597.5439815392266</v>
       </c>
       <c r="N14" t="n">
-        <v>611.8732803774017</v>
+        <v>611.8732803774021</v>
       </c>
       <c r="O14" t="n">
-        <v>564.3046271208884</v>
+        <v>564.3046271208888</v>
       </c>
       <c r="P14" t="n">
-        <v>446.7714477815867</v>
+        <v>446.771447781587</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.8474110338575</v>
+        <v>286.8474110338577</v>
       </c>
       <c r="R14" t="n">
-        <v>80.58502138700175</v>
+        <v>80.58502138700186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.5001939862209</v>
+        <v>111.500193986221</v>
       </c>
       <c r="K15" t="n">
-        <v>269.5158584109695</v>
+        <v>269.5158584109697</v>
       </c>
       <c r="L15" t="n">
-        <v>409.1877775675655</v>
+        <v>121.0518277784515</v>
       </c>
       <c r="M15" t="n">
-        <v>497.0552283739434</v>
+        <v>497.0552283739437</v>
       </c>
       <c r="N15" t="n">
-        <v>524.7649880185924</v>
+        <v>524.7649880185926</v>
       </c>
       <c r="O15" t="n">
-        <v>457.6132053005623</v>
+        <v>457.6132053005625</v>
       </c>
       <c r="P15" t="n">
-        <v>59.61064161673345</v>
+        <v>347.7465914058463</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.0359563945337</v>
+        <v>182.0359563945339</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.16630921633052</v>
+        <v>56.16630921633057</v>
       </c>
       <c r="K16" t="n">
-        <v>223.4468195635709</v>
+        <v>223.446819563571</v>
       </c>
       <c r="L16" t="n">
-        <v>342.0223066737065</v>
+        <v>342.0223066737066</v>
       </c>
       <c r="M16" t="n">
-        <v>371.1086310532609</v>
+        <v>371.108631053261</v>
       </c>
       <c r="N16" t="n">
-        <v>367.7740088126151</v>
+        <v>367.7740088126152</v>
       </c>
       <c r="O16" t="n">
-        <v>323.520746809441</v>
+        <v>323.5207468094411</v>
       </c>
       <c r="P16" t="n">
-        <v>253.0696239538835</v>
+        <v>253.0696239538836</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.93443125599411</v>
+        <v>90.9344312559942</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>460.0739271306251</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>254.6558406676093</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>507.230911926214</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36376,7 +36376,7 @@
         <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227508</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36437,10 +36437,10 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0691053452778</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>224.1012806237565</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414971</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36604,7 +36604,7 @@
         <v>671.8997542381571</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
         <v>635.6527791348811</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>81.45993426216009</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36689,10 +36689,10 @@
         <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817348</v>
@@ -36762,16 +36762,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>86.0539760215201</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P30" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817348</v>
@@ -36999,7 +36999,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37148,13 +37148,13 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0691053452778</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
@@ -37166,7 +37166,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010902</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908713</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193555</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414978</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>454.9327861733077</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327297</v>
@@ -37868,13 +37868,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>532.2460412499707</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O42" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817348</v>
@@ -37947,16 +37947,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.063527911684</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721832</v>
@@ -38105,13 +38105,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>532.2460412499707</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
@@ -38190,10 +38190,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
